--- a/text/Statistik.xlsx
+++ b/text/Statistik.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korme\Documents\Feuerwehr\Flobo\Florianibote2021\text\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feuerwehr Lengenfeld\Documents\Flobo\2021\Florianibote2021\text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F9A9EA-C295-4361-A332-14638395B045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93B4383-6AEE-4541-971A-16379BBAE731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einsätze" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Testen!$K$7:$K$9</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Testen!$L$7:$L$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Testen!$K$7:$K$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Testen!$L$7:$L$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,9 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -3171,7 +3171,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>117 Übungen und Schulungen</a:t>
+                <a:t>79 Übungen und Schulungen</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3455,7 +3455,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>4760 Stunden</a:t>
+              <a:t>6846 Stunden</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-AT" sz="1400" baseline="0">
@@ -3480,7 +3480,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>119 000 Euro Arbeitsleistung</a:t>
+              <a:t>171,150 Euro Arbeitsleistung</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3804,7 +3804,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>52 technische</a:t>
+                <a:t>91 technische</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="de-AT" sz="1400" baseline="0">
@@ -3926,20 +3926,12 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="de-AT" sz="1400">
-                  <a:solidFill>
-                    <a:srgbClr val="C00000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>4</a:t>
-              </a:r>
-              <a:r>
                 <a:rPr lang="de-AT" sz="1400" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="C00000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t> Brandeinsätze</a:t>
+                <a:t>5 Brandeinsätze</a:t>
               </a:r>
               <a:endParaRPr lang="de-AT" sz="1400">
                 <a:solidFill>
@@ -4448,16 +4440,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>618725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>605119</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>537083</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>98452</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4472,79 +4464,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="33618" y="89647"/>
-          <a:ext cx="5860677" cy="3451412"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-AT" sz="1100">
-            <a:ln w="28575">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>181535</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>81296</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>68917</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>120464</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="TextBox 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A171DFAB-529B-42BE-8D3F-037DBD4FAD6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6753785" y="3700796"/>
-          <a:ext cx="4487957" cy="2706168"/>
+          <a:off x="5843868" y="1600040"/>
+          <a:ext cx="5796644" cy="3451412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4591,15 +4512,86 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>24655</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
+      <xdr:colOff>59071</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>81296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>599596</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:rowOff>120464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="TextBox 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A171DFAB-529B-42BE-8D3F-037DBD4FAD6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="59071" y="6558296"/>
+          <a:ext cx="4459382" cy="2706168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AT" sz="1100">
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>174334</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>143115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160885</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152081</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4614,8 +4606,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24655" y="6266329"/>
-          <a:ext cx="4614580" cy="3056966"/>
+          <a:off x="4093191" y="5286615"/>
+          <a:ext cx="4558551" cy="3056966"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5520,7 +5512,7 @@
   <dimension ref="K7:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5538,7 +5530,7 @@
         <v>12</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="11:12" x14ac:dyDescent="0.25">

--- a/text/Statistik.xlsx
+++ b/text/Statistik.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feuerwehr Lengenfeld\Documents\Flobo\2021\Florianibote2021\text\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korme\Documents\Feuerwehr\Flobo\Florianibote2021\text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93B4383-6AEE-4541-971A-16379BBAE731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A1D40B-B304-4C7F-95B3-91932AF49AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einsätze" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Testen!$K$7:$K$9</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Testen!$L$7:$L$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Testen!$K$7:$K$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Testen!$L$7:$L$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -2770,8 +2770,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3106891" y="5127379"/>
-          <a:ext cx="1274608" cy="846818"/>
+          <a:off x="3102158" y="5127379"/>
+          <a:ext cx="1272241" cy="846818"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2847,8 +2847,8 @@
       <xdr:rowOff>169294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>640839</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>395910</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>141756</xdr:rowOff>
     </xdr:to>
@@ -2866,9 +2866,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="384310" y="6455794"/>
-          <a:ext cx="3522243" cy="3401462"/>
+          <a:ext cx="4583600" cy="3401462"/>
           <a:chOff x="184180" y="5025362"/>
-          <a:chExt cx="3566188" cy="3401462"/>
+          <a:chExt cx="4640787" cy="3401462"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2972,6 +2972,17 @@
             <a:p>
               <a:pPr marL="0" indent="0"/>
               <a:r>
+                <a:rPr lang="en-AT" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>30</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="de-AT" sz="1400">
                   <a:solidFill>
                     <a:srgbClr val="C00000"/>
@@ -2980,8 +2991,27 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>24 Kursbesuche</a:t>
+                <a:t> </a:t>
               </a:r>
+              <a:r>
+                <a:rPr lang="en-AT" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Schulungen</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-AT" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3081,44 +3111,6 @@
             </a:prstGeom>
           </xdr:spPr>
         </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="62" name="Graphic 61" descr="Firefighter">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69D62C5-227C-4429-AA14-CECB8A1A70DD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2114475" y="1076250"/>
-              <a:ext cx="914400" cy="914400"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="63" name="TextBox 62">
@@ -3190,50 +3182,12 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="1391527" y="6255124"/>
-            <a:ext cx="2358841" cy="1114425"/>
-            <a:chOff x="323848" y="1752600"/>
-            <a:chExt cx="2343152" cy="1114425"/>
+            <a:off x="2466126" y="6262249"/>
+            <a:ext cx="2358841" cy="1120907"/>
+            <a:chOff x="1391300" y="1759725"/>
+            <a:chExt cx="2343152" cy="1120907"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="66" name="Graphic 65" descr="Teacher">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A1738F-912E-447A-8F1D-93DBCDA3F030}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="466725" y="1752600"/>
-              <a:ext cx="914400" cy="914400"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="68" name="Graphic 67" descr="Group of men">
@@ -3248,13 +3202,13 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -3285,7 +3239,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="323848" y="2590800"/>
+              <a:off x="1391300" y="2604407"/>
               <a:ext cx="2343152" cy="276225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3316,6 +3270,17 @@
             <a:p>
               <a:pPr marL="0" indent="0"/>
               <a:r>
+                <a:rPr lang="en-AT" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>49</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="de-AT" sz="1400">
                   <a:solidFill>
                     <a:srgbClr val="C00000"/>
@@ -3324,8 +3289,27 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>78 Kleingruppenschulungen</a:t>
+                <a:t> </a:t>
               </a:r>
+              <a:r>
+                <a:rPr lang="en-AT" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Übungen</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-AT" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3379,13 +3363,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3514,14 +3498,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>488667</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>174359</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>179658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>138817</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>128306</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>642886</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>5874</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3536,482 +3520,203 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1141810" y="3793859"/>
-          <a:ext cx="7487864" cy="4525947"/>
-          <a:chOff x="2201586" y="3321131"/>
-          <a:chExt cx="7568653" cy="4525947"/>
+          <a:off x="1141810" y="4561158"/>
+          <a:ext cx="4073076" cy="1540716"/>
+          <a:chOff x="2201586" y="4088430"/>
+          <a:chExt cx="4117572" cy="1540716"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="59" name="Group 58">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="TextBox 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D3DA6A-B91D-4942-A3B6-F1800F674D73}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E95BAE-66C4-4A7C-9172-2EBC98FEB532}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="4004764" y="3321131"/>
-            <a:ext cx="5765475" cy="4525947"/>
-            <a:chOff x="891703" y="3741753"/>
-            <a:chExt cx="5733136" cy="4525947"/>
+            <a:off x="4221415" y="4088430"/>
+            <a:ext cx="2097743" cy="276225"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="53" name="Graphic 52" descr="Firefighter">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0510D4A7-0655-412F-B35A-E0C9F6852ED8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5710439" y="7353300"/>
-              <a:ext cx="914400" cy="914400"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="55" name="Graphic 54" descr="Dance">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D26409A-E575-40AB-91FE-F0ADE865C868}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1075140" y="3741753"/>
-              <a:ext cx="914400" cy="914400"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="56" name="TextBox 55">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E95BAE-66C4-4A7C-9172-2EBC98FEB532}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1107139" y="4509052"/>
-              <a:ext cx="2085976" cy="276225"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
             <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0"/>
-              <a:r>
-                <a:rPr lang="de-AT" sz="1400">
-                  <a:solidFill>
-                    <a:srgbClr val="C00000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1 Brandsicherheitswache</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="58" name="Graphic 57" descr="Champagne glasses">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AC05FE-985F-43E7-997B-1DC982F6FDE6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="891703" y="4126810"/>
-              <a:ext cx="381000" cy="381000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="8" name="Group 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F92252A-AFA4-40C7-9BAD-961B3DEC13BF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="2201586" y="4006885"/>
-            <a:ext cx="1983410" cy="1189682"/>
-            <a:chOff x="632762" y="2482885"/>
-            <a:chExt cx="1983410" cy="1189682"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="48" name="TextBox 47">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017CBDAE-2538-4BBF-8AF3-A7DBC2BEA6C2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="632762" y="3396342"/>
-              <a:ext cx="1983410" cy="276225"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0"/>
-              <a:r>
-                <a:rPr lang="de-AT" sz="1400">
-                  <a:solidFill>
-                    <a:srgbClr val="C00000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>91 technische</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-AT" sz="1400" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="C00000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> Einsätze</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-AT" sz="1400">
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:r>
+              <a:rPr lang="de-AT" sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="7" name="Picture 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F108F33-BFC8-440F-9015-CA2BDF9D3AD8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1517143" y="2482885"/>
-              <a:ext cx="989558" cy="834056"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="13" name="Group 12">
+              </a:rPr>
+              <a:t>1 Brandsicherheitswache</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="TextBox 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1D99C8-33EA-476D-8B60-3196B9315930}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017CBDAE-2538-4BBF-8AF3-A7DBC2BEA6C2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="4106105" y="4588859"/>
-            <a:ext cx="2422097" cy="1040287"/>
-            <a:chOff x="3355311" y="6090448"/>
-            <a:chExt cx="2422097" cy="1040287"/>
+            <a:off x="2201586" y="4920342"/>
+            <a:ext cx="1983410" cy="276225"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="41" name="TextBox 40">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEF5640-1D66-4EE5-9297-46AE3FD3F71B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3355311" y="6854510"/>
-              <a:ext cx="1446903" cy="276225"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
             <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-AT" sz="1400" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="C00000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>5 Brandeinsätze</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-AT" sz="1400">
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:r>
+              <a:rPr lang="de-AT" sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="10" name="Picture 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30FDC864-3765-40BE-978F-2660C02F175F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4600790" y="6090448"/>
-              <a:ext cx="1176618" cy="926166"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="12" name="Picture 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F06D3C6-7321-4452-9F60-35B88DCCBD8F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4278090" y="6188570"/>
-              <a:ext cx="854091" cy="730858"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>91 technische</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> Einsätze</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="TextBox 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEF5640-1D66-4EE5-9297-46AE3FD3F71B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4106105" y="5352921"/>
+            <a:ext cx="1446903" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-AT" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>5 Brandeinsätze</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4066,7 +3771,7 @@
             </xdr:xfrm>
             <a:graphic>
               <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-                <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+                <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
               </a:graphicData>
             </a:graphic>
           </xdr:graphicFrame>
@@ -4440,16 +4145,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>618725</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76040</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>56990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>537083</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>98452</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>575583</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>79402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4464,8 +4169,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5843868" y="1600040"/>
-          <a:ext cx="5796644" cy="3451412"/>
+          <a:off x="0" y="56990"/>
+          <a:ext cx="5833383" cy="3451412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4512,15 +4217,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>59071</xdr:colOff>
+      <xdr:colOff>31858</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>81296</xdr:rowOff>
+      <xdr:rowOff>54082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>599596</xdr:colOff>
+      <xdr:colOff>572383</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>120464</xdr:rowOff>
+      <xdr:rowOff>93250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4535,7 +4240,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="59071" y="6558296"/>
+          <a:off x="31858" y="6531082"/>
           <a:ext cx="4459382" cy="2706168"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4582,16 +4287,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>174334</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>143115</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>515873</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>49225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>160885</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>152081</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>502424</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>58191</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4606,7 +4311,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4093191" y="5286615"/>
+          <a:off x="1169016" y="3478225"/>
           <a:ext cx="4558551" cy="3056966"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4950,11 +4655,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId29">
+                <a14:imgLayer r:embed="rId17">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
                   </a14:imgEffect>
@@ -4984,16 +4689,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>612914</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>37865</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>572092</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>92294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>64036</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23215</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5009,7 +4714,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5022,7 +4727,257 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3878628" y="3847865"/>
+          <a:off x="1878378" y="6569294"/>
+          <a:ext cx="757408" cy="759775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>399440</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>45653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8F2B8F-746A-4E5C-AEA1-3388EF26FD58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2149929" y="4517571"/>
+          <a:ext cx="862082" cy="862082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>326573</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>18442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>367394</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>140906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Grafik 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A53D893-13C8-4225-A453-A712EABB540A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4245430" y="5161942"/>
+          <a:ext cx="693964" cy="693964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>639536</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>86476</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>59262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Grafik 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E913C807-970B-4062-BDE1-015E9E3F24BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3252107" y="3878036"/>
+          <a:ext cx="753226" cy="753226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>522226</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>168440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Grafik 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{555287CD-CAF7-4B21-AFA1-5E1724D07BEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3537857" y="7647214"/>
+          <a:ext cx="903226" cy="903226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>629242</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>13372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80364</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Grafik 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C7E927-B832-4ECE-AA41-301ECD73FA5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3894956" y="3823372"/>
           <a:ext cx="757408" cy="759775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5511,8 +5466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="K7:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/text/Statistik.xlsx
+++ b/text/Statistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korme\Documents\Feuerwehr\Flobo\Florianibote2021\text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A1D40B-B304-4C7F-95B3-91932AF49AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3A19B8-E346-4916-950F-168EFDA75201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Einsätze</t>
   </si>
@@ -84,6 +84,9 @@
   <si>
     <t>Reservisten</t>
   </si>
+  <si>
+    <t>26 Kursbesuche</t>
+  </si>
 </sst>
 </file>
 
@@ -98,12 +101,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,8 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2717,6 +2727,76 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76526</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>593365</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>11953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Grafik 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7FFDFD-8C9A-47D2-942A-619ED3D47E40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="8228" b="89241" l="1254" r="99060">
+                      <a14:foregroundMark x1="8464" y1="29114" x2="6270" y2="48101"/>
+                      <a14:foregroundMark x1="1254" y1="31013" x2="2194" y2="46835"/>
+                      <a14:foregroundMark x1="21944" y1="60759" x2="15361" y2="55063"/>
+                      <a14:foregroundMark x1="25078" y1="53797" x2="28527" y2="54430"/>
+                      <a14:foregroundMark x1="30721" y1="54430" x2="36677" y2="54430"/>
+                      <a14:foregroundMark x1="38871" y1="54430" x2="43887" y2="55063"/>
+                      <a14:foregroundMark x1="94671" y1="35443" x2="89969" y2="50000"/>
+                      <a14:foregroundMark x1="93417" y1="70253" x2="92790" y2="68354"/>
+                      <a14:foregroundMark x1="99060" y1="75316" x2="99060" y2="72152"/>
+                      <a14:foregroundMark x1="88401" y1="12025" x2="79937" y2="8228"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4704555" y="7429499"/>
+          <a:ext cx="1177986" cy="583454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>489587</xdr:colOff>
       <xdr:row>26</xdr:row>
@@ -2742,11 +2822,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId2">
+                <a14:imgLayer r:embed="rId4">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                       <a14:foregroundMark x1="68438" y1="66416" x2="75750" y2="65663"/>
@@ -2807,11 +2887,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId4">
+                <a14:imgLayer r:embed="rId6">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
                   </a14:imgEffect>
@@ -2866,7 +2946,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="384310" y="6455794"/>
-          <a:ext cx="4583600" cy="3401462"/>
+          <a:ext cx="4591883" cy="3401462"/>
           <a:chOff x="184180" y="5025362"/>
           <a:chExt cx="4640787" cy="3401462"/>
         </a:xfrm>
@@ -2904,13 +2984,13 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -3049,13 +3129,13 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -3087,13 +3167,13 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -3202,13 +3282,13 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -3343,8 +3423,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3456214" y="1852028"/>
-          <a:ext cx="2387561" cy="1605643"/>
+          <a:off x="3462130" y="1852028"/>
+          <a:ext cx="2391111" cy="1605643"/>
           <a:chOff x="3291565" y="449036"/>
           <a:chExt cx="2382613" cy="1605643"/>
         </a:xfrm>
@@ -3363,13 +3443,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3464,7 +3544,29 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>171,150 Euro Arbeitsleistung</a:t>
+              <a:t>171</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AT" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>150 Euro Arbeitsleistung</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3520,8 +3622,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1141810" y="4561158"/>
-          <a:ext cx="4073076" cy="1540716"/>
+          <a:off x="1142993" y="4561158"/>
+          <a:ext cx="4080176" cy="1540716"/>
           <a:chOff x="2201586" y="4088430"/>
           <a:chExt cx="4117572" cy="1540716"/>
         </a:xfrm>
@@ -3747,7 +3849,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="131414" y="225852"/>
-          <a:ext cx="5158468" cy="2934937"/>
+          <a:ext cx="5167934" cy="2934937"/>
           <a:chOff x="0" y="278469"/>
           <a:chExt cx="5191125" cy="2934937"/>
         </a:xfrm>
@@ -3771,7 +3873,7 @@
             </xdr:xfrm>
             <a:graphic>
               <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-                <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+                <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
               </a:graphicData>
             </a:graphic>
           </xdr:graphicFrame>
@@ -4145,219 +4247,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>56990</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>575583</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>79402</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="TextBox 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F59BCC0-9AB3-4179-BF4F-BBE5D8E0E79B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="56990"/>
-          <a:ext cx="5833383" cy="3451412"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-AT" sz="1100">
-            <a:ln w="28575">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>31858</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>54082</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>572383</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>93250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="TextBox 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A171DFAB-529B-42BE-8D3F-037DBD4FAD6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31858" y="6531082"/>
-          <a:ext cx="4459382" cy="2706168"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-AT" sz="1100">
-            <a:ln w="28575">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>515873</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>49225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>502424</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>58191</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="TextBox 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FC9841-9985-478B-A6FD-7F90E4EEC86C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1169016" y="3478225"/>
-          <a:ext cx="4558551" cy="3056966"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-AT" sz="1100">
-            <a:ln w="28575">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -4655,11 +4544,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId17">
+                <a14:imgLayer r:embed="rId19">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
                   </a14:imgEffect>
@@ -4714,7 +4603,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4764,7 +4653,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4814,7 +4703,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4864,7 +4753,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4914,7 +4803,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4964,7 +4853,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4985,6 +4874,147 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>550719</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>124894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFB198A-FB0C-4A2D-98F7-A79B5CD42C03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4863352" y="7530351"/>
+          <a:ext cx="976543" cy="976543"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>36928</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>102058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>411738</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>187783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="TextBox 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59CBDC4-7560-4E0D-8485-CD80DBD931E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4664957" y="8484058"/>
+          <a:ext cx="2358252" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-AT" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>26</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AT" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Kursbesuche</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-AT" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5464,15 +5494,90 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="K7:L9"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="K7" t="s">
         <v>11</v>
       </c>
@@ -5480,7 +5585,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="K8" t="s">
         <v>12</v>
       </c>
@@ -5488,7 +5602,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="K9" t="s">
         <v>13</v>
       </c>
@@ -5496,6 +5619,460 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/text/Statistik.xlsx
+++ b/text/Statistik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korme\Documents\Feuerwehr\Flobo\Florianibote2021\text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3A19B8-E346-4916-950F-168EFDA75201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AD5190-512A-4639-A6E5-0510AF070FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einsätze" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Testen!$K$7:$K$9</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Testen!$L$7:$L$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Testen!$K$7:$K$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Testen!$L$7:$L$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2946,7 +2948,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="384310" y="6455794"/>
-          <a:ext cx="4591883" cy="3401462"/>
+          <a:ext cx="4609876" cy="3401462"/>
           <a:chOff x="184180" y="5025362"/>
           <a:chExt cx="4640787" cy="3401462"/>
         </a:xfrm>
@@ -3369,27 +3371,8 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> </a:t>
+                <a:t> Ausbildungen</a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-AT" sz="1400">
-                  <a:solidFill>
-                    <a:srgbClr val="C00000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Übungen</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-AT" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3423,8 +3406,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3462130" y="1852028"/>
-          <a:ext cx="2391111" cy="1605643"/>
+          <a:off x="3474983" y="1852028"/>
+          <a:ext cx="2398821" cy="1605643"/>
           <a:chOff x="3291565" y="449036"/>
           <a:chExt cx="2382613" cy="1605643"/>
         </a:xfrm>
@@ -3544,42 +3527,6 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>171</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AT" sz="1400" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>.</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-AT" sz="1400" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>150 Euro Arbeitsleistung</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0"/>
-            <a:r>
-              <a:rPr lang="de-AT" sz="1400" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:endParaRPr lang="de-AT" sz="1400">
@@ -3622,8 +3569,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1142993" y="4561158"/>
-          <a:ext cx="4080176" cy="1540716"/>
+          <a:off x="1145564" y="4561158"/>
+          <a:ext cx="4095598" cy="1540716"/>
           <a:chOff x="2201586" y="4088430"/>
           <a:chExt cx="4117572" cy="1540716"/>
         </a:xfrm>
@@ -3849,7 +3796,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="131414" y="225852"/>
-          <a:ext cx="5167934" cy="2934937"/>
+          <a:ext cx="5188497" cy="2934937"/>
           <a:chOff x="0" y="278469"/>
           <a:chExt cx="5191125" cy="2934937"/>
         </a:xfrm>
@@ -4253,8 +4200,8 @@
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>616324</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>248478</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4271,8 +4218,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3440206" y="336177"/>
-          <a:ext cx="1804147" cy="616323"/>
+          <a:off x="3406101" y="336177"/>
+          <a:ext cx="2076986" cy="616323"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4306,7 +4253,23 @@
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Allgmeines </a:t>
+            <a:t>Allg</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>e</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AT" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>meines </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5496,8 +5459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScale="145" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
